--- a/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierEntraineurLes Lillas.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierEntraineurLes Lillas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\Informatique C#\Esilv_année_2019\Wpf_Tennis\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6F9675-0D47-4A81-B072-CC75F571CC48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8245E96-7A3F-4382-84E2-EBD8D8B1363C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4788" yWindow="1176" windowWidth="16872" windowHeight="9108" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
+    <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>villam</t>
-  </si>
-  <si>
-    <t>Ace Club</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>NaN</t>
   </si>
@@ -51,13 +45,55 @@
     <t>FR78</t>
   </si>
   <si>
-    <t>azert</t>
-  </si>
-  <si>
-    <t>qsd</t>
-  </si>
-  <si>
-    <t>sqd</t>
+    <t>MAUPASSANT</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Le Horla</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
+    <t>Les Lillas</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>SDF</t>
+  </si>
+  <si>
+    <t>qdsf</t>
+  </si>
+  <si>
+    <t>qsdf</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>aze</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -410,11 +446,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F6772F-1D2C-40D9-BA5D-0A4C54ABCABB}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -423,24 +457,24 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>33228</v>
@@ -449,19 +483,19 @@
         <v>625859696</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>1000</v>
       </c>
       <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
         <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
       </c>
       <c r="M2" s="1">
         <v>43841</v>
@@ -470,12 +504,140 @@
         <v>2500</v>
       </c>
       <c r="O2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36145</v>
+      </c>
+      <c r="G3">
+        <v>654987852</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>36145</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36145</v>
+      </c>
+      <c r="G4">
+        <v>2457865424</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>36145</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>36145</v>
+      </c>
+      <c r="G5">
+        <v>245789654</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierEntraineurLes Lillas.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierEntraineurLes Lillas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8245E96-7A3F-4382-84E2-EBD8D8B1363C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20363614-361D-4679-A21B-B0F7C7D35793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
   </bookViews>

--- a/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierEntraineurLes Lillas.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierEntraineurLes Lillas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20363614-361D-4679-A21B-B0F7C7D35793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D79F0-4F0D-4723-BAD9-DFDA687E30DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
+    <workbookView xWindow="372" yWindow="864" windowWidth="20088" windowHeight="9060" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>NaN</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Les Lillas</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -94,6 +88,15 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>BALZAC</t>
+  </si>
+  <si>
+    <t>Honore</t>
+  </si>
+  <si>
+    <t>05/08/1850</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F6772F-1D2C-40D9-BA5D-0A4C54ABCABB}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -476,8 +481,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
-        <v>33228</v>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G2">
         <v>625859696</v>
@@ -509,19 +514,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>36145</v>
@@ -551,24 +556,24 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="1">
         <v>36145</v>
@@ -598,24 +603,24 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>36145</v>
